--- a/biology/Médecine/Robert_Neuburger/Robert_Neuburger.xlsx
+++ b/biology/Médecine/Robert_Neuburger/Robert_Neuburger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Neuburger est un psychiatre, psychothérapeute de famille français, directeur du Centre d'étude de la famille association (CEFA).
 </t>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1984 : L'Autre demande : Psychanalyse et thérapie familiale systémique, Paris, ESF, coll. « Sciences humaines appliquées », 107 p.  (ISBN 2-7101-0504-7) ; rééd. 1986  (ISBN 2-7101-0504-7), 1992  (ISBN 2-7101-0956-5), 2000  (ISBN 2-7101-1443-7), Payot &amp; Rivages, 2003, coll. « Petite bibliothèque Payot » (no 481), 195 p.  (ISBN 2-228-89788-4)
 1988 : L'Irrationnel dans le couple et la famille : À propos des petits groupes et de ceux qui les inventent, préf. de Philippe Caillé, Paris, ESF, coll. « Sciences humaines appliquées », 167 p.  (ISBN 2-7101-0737-6) ; rééd. 1993  (ISBN 2-7101-1017-2), 2000  (ISBN 2-7101-1458-5)
